--- a/Assets/Resources/Game_BattleEffects.xlsx
+++ b/Assets/Resources/Game_BattleEffects.xlsx
@@ -410,8 +410,8 @@
         <v>9</v>
       </c>
       <c r="F2" s="3"/>
-      <c r="G2" s="3">
-        <v>15.0</v>
+      <c r="G2" s="4">
+        <v>50.0</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -449,8 +449,8 @@
       <c r="F3" s="3">
         <v>2.0</v>
       </c>
-      <c r="G3" s="3">
-        <v>10.0</v>
+      <c r="G3" s="4">
+        <v>25.0</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>

--- a/Assets/Resources/Game_BattleEffects.xlsx
+++ b/Assets/Resources/Game_BattleEffects.xlsx
@@ -3,8 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="DamageBattleEffect" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="StatModifierBattleEffect" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="BattleEffectDamageSO" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="BattleEffectStatsModifierSO" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr/>

--- a/Assets/Resources/Game_BattleEffects.xlsx
+++ b/Assets/Resources/Game_BattleEffects.xlsx
@@ -411,7 +411,7 @@
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="4">
-        <v>50.0</v>
+        <v>150.0</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -450,7 +450,7 @@
         <v>2.0</v>
       </c>
       <c r="G3" s="4">
-        <v>25.0</v>
+        <v>50.0</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
